--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H2">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I2">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J2">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>103.0466974276364</v>
+        <v>566.7176027887473</v>
       </c>
       <c r="R2">
-        <v>927.4202768487281</v>
+        <v>5100.458425098726</v>
       </c>
       <c r="S2">
-        <v>0.03121994549198473</v>
+        <v>0.143387227799226</v>
       </c>
       <c r="T2">
-        <v>0.03121994549198473</v>
+        <v>0.1433872277992261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H3">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I3">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J3">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>121.5685263443271</v>
+        <v>190.0933042765413</v>
       </c>
       <c r="R3">
-        <v>1094.116737098944</v>
+        <v>1710.839738488872</v>
       </c>
       <c r="S3">
-        <v>0.03683148379089062</v>
+        <v>0.04809618015971256</v>
       </c>
       <c r="T3">
-        <v>0.03683148379089062</v>
+        <v>0.04809618015971259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H4">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I4">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J4">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>15.55999505094667</v>
+        <v>32.58880906956033</v>
       </c>
       <c r="R4">
-        <v>140.03995545852</v>
+        <v>293.299281626043</v>
       </c>
       <c r="S4">
-        <v>0.004714194724069086</v>
+        <v>0.008245410000974319</v>
       </c>
       <c r="T4">
-        <v>0.004714194724069086</v>
+        <v>0.008245410000974323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H5">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I5">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J5">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>12.90773417403022</v>
+        <v>10.286160616554</v>
       </c>
       <c r="R5">
-        <v>116.169607566272</v>
+        <v>92.575445548986</v>
       </c>
       <c r="S5">
-        <v>0.003910642139902058</v>
+        <v>0.002602537927615861</v>
       </c>
       <c r="T5">
-        <v>0.003910642139902058</v>
+        <v>0.002602537927615862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H6">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I6">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J6">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>556.1274764630347</v>
+        <v>623.2715657892796</v>
       </c>
       <c r="R6">
-        <v>5005.147288167313</v>
+        <v>5609.444092103518</v>
       </c>
       <c r="S6">
-        <v>0.1684893347888558</v>
+        <v>0.157696146272558</v>
       </c>
       <c r="T6">
-        <v>0.1684893347888558</v>
+        <v>0.157696146272558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H7">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I7">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J7">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>23.17568429521511</v>
+        <v>14.77659142941233</v>
       </c>
       <c r="R7">
-        <v>208.581158656936</v>
+        <v>132.989322864711</v>
       </c>
       <c r="S7">
-        <v>0.007021511785413248</v>
+        <v>0.003738677731129242</v>
       </c>
       <c r="T7">
-        <v>0.007021511785413249</v>
+        <v>0.003738677731129243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J8">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>235.9800179679024</v>
+        <v>829.969603404483</v>
       </c>
       <c r="R8">
-        <v>2123.820161711122</v>
+        <v>7469.726430640348</v>
       </c>
       <c r="S8">
-        <v>0.07149460858101828</v>
+        <v>0.2099935488225051</v>
       </c>
       <c r="T8">
-        <v>0.07149460858101828</v>
+        <v>0.2099935488225052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J9">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>278.3955599470951</v>
@@ -1013,10 +1013,10 @@
         <v>2505.560039523856</v>
       </c>
       <c r="S9">
-        <v>0.08434519905756702</v>
+        <v>0.07043784660295328</v>
       </c>
       <c r="T9">
-        <v>0.08434519905756702</v>
+        <v>0.07043784660295332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J10">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>35.63285387463667</v>
+        <v>47.72698219675711</v>
       </c>
       <c r="R10">
-        <v>320.69568487173</v>
+        <v>429.5428397708139</v>
       </c>
       <c r="S10">
-        <v>0.01079564686166895</v>
+        <v>0.01207557279805726</v>
       </c>
       <c r="T10">
-        <v>0.01079564686166895</v>
+        <v>0.01207557279805726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J11">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>29.55909717001422</v>
+        <v>15.064294113092</v>
       </c>
       <c r="R11">
-        <v>266.031874530128</v>
+        <v>135.578647017828</v>
       </c>
       <c r="S11">
-        <v>0.008955487419557283</v>
+        <v>0.003811470406070384</v>
       </c>
       <c r="T11">
-        <v>0.008955487419557283</v>
+        <v>0.003811470406070386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J12">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>1273.548548029398</v>
+        <v>912.7940472042294</v>
       </c>
       <c r="R12">
-        <v>11461.93693226459</v>
+        <v>8215.146424838065</v>
       </c>
       <c r="S12">
-        <v>0.3858456141090332</v>
+        <v>0.2309492546837987</v>
       </c>
       <c r="T12">
-        <v>0.3858456141090332</v>
+        <v>0.2309492546837988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J13">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>53.07300993555711</v>
+        <v>21.64062253931978</v>
       </c>
       <c r="R13">
-        <v>477.657089420014</v>
+        <v>194.765602853878</v>
       </c>
       <c r="S13">
-        <v>0.01607947191560627</v>
+        <v>0.005475370552269921</v>
       </c>
       <c r="T13">
-        <v>0.01607947191560627</v>
+        <v>0.005475370552269924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H14">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I14">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J14">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.1408956631574445</v>
+        <v>0.5933652919646666</v>
       </c>
       <c r="R14">
-        <v>1.268060968417</v>
+        <v>5.340287627682</v>
       </c>
       <c r="S14">
-        <v>4.268700534455692E-05</v>
+        <v>0.0001501294540145194</v>
       </c>
       <c r="T14">
-        <v>4.268700534455692E-05</v>
+        <v>0.0001501294540145194</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H15">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I15">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J15">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.1662205443351111</v>
+        <v>0.1990317019226666</v>
       </c>
       <c r="R15">
-        <v>1.495984899016</v>
+        <v>1.791285317304</v>
       </c>
       <c r="S15">
-        <v>5.035965696459514E-05</v>
+        <v>5.035771580487019E-05</v>
       </c>
       <c r="T15">
-        <v>5.035965696459515E-05</v>
+        <v>5.035771580487022E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H16">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I16">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J16">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.02127516821166667</v>
+        <v>0.03412117095566666</v>
       </c>
       <c r="R16">
-        <v>0.191476513905</v>
+        <v>0.307090538601</v>
       </c>
       <c r="S16">
-        <v>6.44571450111222E-06</v>
+        <v>8.633118308873633E-06</v>
       </c>
       <c r="T16">
-        <v>6.445714501112221E-06</v>
+        <v>8.633118308873637E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H17">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I17">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J17">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.01764873413422222</v>
+        <v>0.010769827278</v>
       </c>
       <c r="R17">
-        <v>0.158838607208</v>
+        <v>0.096928445502</v>
       </c>
       <c r="S17">
-        <v>5.347017725239349E-06</v>
+        <v>2.724912142608263E-06</v>
       </c>
       <c r="T17">
-        <v>5.34701772523935E-06</v>
+        <v>2.724912142608264E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H18">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I18">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J18">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>0.7603926331686667</v>
+        <v>0.6525784849243332</v>
       </c>
       <c r="R18">
-        <v>6.843533698518</v>
+        <v>5.873206364319</v>
       </c>
       <c r="S18">
-        <v>0.0002303753264553024</v>
+        <v>0.0001651111936778843</v>
       </c>
       <c r="T18">
-        <v>0.0002303753264553024</v>
+        <v>0.0001651111936778843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H19">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I19">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J19">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.03168809374211112</v>
+        <v>0.01547140311966667</v>
       </c>
       <c r="R19">
-        <v>0.285192843679</v>
+        <v>0.139242628077</v>
       </c>
       <c r="S19">
-        <v>9.600507188193372E-06</v>
+        <v>3.914474497663069E-06</v>
       </c>
       <c r="T19">
-        <v>9.600507188193375E-06</v>
+        <v>3.91447449766307E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H20">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>67.93851539383212</v>
+        <v>157.0883362292865</v>
       </c>
       <c r="R20">
-        <v>611.446638544489</v>
+        <v>1413.795026063578</v>
       </c>
       <c r="S20">
-        <v>0.02058325788549683</v>
+        <v>0.03974547630190065</v>
       </c>
       <c r="T20">
-        <v>0.02058325788549683</v>
+        <v>0.03974547630190067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H21">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>80.14992624338578</v>
+        <v>52.69192407326845</v>
       </c>
       <c r="R21">
-        <v>721.3493361904719</v>
+        <v>474.227316659416</v>
       </c>
       <c r="S21">
-        <v>0.02428293570749611</v>
+        <v>0.01333177032633947</v>
       </c>
       <c r="T21">
-        <v>0.02428293570749611</v>
+        <v>0.01333177032633948</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H22">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>10.25867873193167</v>
+        <v>9.033285310425445</v>
       </c>
       <c r="R22">
-        <v>92.32810858738499</v>
+        <v>81.299567793829</v>
       </c>
       <c r="S22">
-        <v>0.003108060702824561</v>
+        <v>0.00228554350916148</v>
       </c>
       <c r="T22">
-        <v>0.003108060702824561</v>
+        <v>0.00228554350916148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H23">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>8.510047568459557</v>
+        <v>2.851218754262</v>
       </c>
       <c r="R23">
-        <v>76.590428116136</v>
+        <v>25.660968788358</v>
       </c>
       <c r="S23">
-        <v>0.002578279827047131</v>
+        <v>0.0007213969550460351</v>
       </c>
       <c r="T23">
-        <v>0.002578279827047131</v>
+        <v>0.0007213969550460353</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H24">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>366.6539157856006</v>
+        <v>172.7645176487612</v>
       </c>
       <c r="R24">
-        <v>3299.885242070406</v>
+        <v>1554.880658838851</v>
       </c>
       <c r="S24">
-        <v>0.1110847368329072</v>
+        <v>0.04371176248245204</v>
       </c>
       <c r="T24">
-        <v>0.1110847368329072</v>
+        <v>0.04371176248245206</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H25">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>15.27968992270478</v>
+        <v>4.095920351448111</v>
       </c>
       <c r="R25">
-        <v>137.517209304343</v>
+        <v>36.863283163033</v>
       </c>
       <c r="S25">
-        <v>0.004629270985188652</v>
+        <v>0.00103632331445244</v>
       </c>
       <c r="T25">
-        <v>0.004629270985188652</v>
+        <v>0.001036323314452441</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H26">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.7331901460467779</v>
+        <v>3.428490604239333</v>
       </c>
       <c r="R26">
-        <v>6.598711314421002</v>
+        <v>30.856415438154</v>
       </c>
       <c r="S26">
-        <v>0.000222133818610879</v>
+        <v>0.0008674545503059366</v>
       </c>
       <c r="T26">
-        <v>0.000222133818610879</v>
+        <v>0.0008674545503059369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H27">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.8649752763564446</v>
+        <v>1.150013877165333</v>
       </c>
       <c r="R27">
-        <v>7.784777487208001</v>
+        <v>10.350124894488</v>
       </c>
       <c r="S27">
-        <v>0.0002620606157584649</v>
+        <v>0.000290969084012809</v>
       </c>
       <c r="T27">
-        <v>0.0002620606157584649</v>
+        <v>0.0002909690840128091</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H28">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.1107113117516667</v>
+        <v>0.1971536178663333</v>
       </c>
       <c r="R28">
-        <v>0.9964018057650001</v>
+        <v>1.774382560797</v>
       </c>
       <c r="S28">
-        <v>3.354208533136529E-05</v>
+        <v>4.988253510625345E-05</v>
       </c>
       <c r="T28">
-        <v>3.35420853313653E-05</v>
+        <v>4.988253510625346E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H29">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.09184014374488891</v>
+        <v>0.06222853296599999</v>
       </c>
       <c r="R29">
-        <v>0.8265612937040001</v>
+        <v>0.560056796694</v>
       </c>
       <c r="S29">
-        <v>2.782470814947726E-05</v>
+        <v>1.574466151765818E-05</v>
       </c>
       <c r="T29">
-        <v>2.782470814947727E-05</v>
+        <v>1.574466151765819E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H30">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>3.956916581192667</v>
+        <v>3.770627022493666</v>
       </c>
       <c r="R30">
-        <v>35.612249230734</v>
+        <v>33.935643202443</v>
       </c>
       <c r="S30">
-        <v>0.00119882269946513</v>
+        <v>0.0009540196972172678</v>
       </c>
       <c r="T30">
-        <v>0.001198822699465131</v>
+        <v>0.0009540196972172681</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H31">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.1648978936474445</v>
+        <v>0.08939444377433332</v>
       </c>
       <c r="R31">
-        <v>1.484081042827</v>
+        <v>0.804549993969</v>
       </c>
       <c r="S31">
-        <v>4.995893492881241E-05</v>
+        <v>2.261800482353033E-05</v>
       </c>
       <c r="T31">
-        <v>4.995893492881243E-05</v>
+        <v>2.261800482353034E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H32">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>0.7727505120546667</v>
+        <v>0.1198411514897778</v>
       </c>
       <c r="R32">
-        <v>6.954754608492</v>
+        <v>1.078570363408</v>
       </c>
       <c r="S32">
-        <v>0.0002341193795385019</v>
+        <v>3.032143417431804E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002341193795385019</v>
+        <v>3.032143417431804E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H33">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>0.9116463052906666</v>
+        <v>0.04019815224177777</v>
       </c>
       <c r="R33">
-        <v>8.204816747616</v>
+        <v>0.361783370176</v>
       </c>
       <c r="S33">
-        <v>0.000276200486474889</v>
+        <v>1.017067686663747E-05</v>
       </c>
       <c r="T33">
-        <v>0.000276200486474889</v>
+        <v>1.017067686663748E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H34">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.11668490542</v>
+        <v>0.006891404793777777</v>
       </c>
       <c r="R34">
-        <v>1.05016414878</v>
+        <v>0.06202264314399999</v>
       </c>
       <c r="S34">
-        <v>3.535189848765393E-05</v>
+        <v>1.743618733844829E-06</v>
       </c>
       <c r="T34">
-        <v>3.535189848765393E-05</v>
+        <v>1.743618733844829E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H35">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.09679551544533334</v>
+        <v>0.002175166832</v>
       </c>
       <c r="R35">
-        <v>0.8711596390080001</v>
+        <v>0.019576501488</v>
       </c>
       <c r="S35">
-        <v>2.932603170707153E-05</v>
+        <v>5.503466638525553E-07</v>
       </c>
       <c r="T35">
-        <v>2.932603170707153E-05</v>
+        <v>5.503466638525555E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H36">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>4.170417906952</v>
+        <v>0.1318003565928889</v>
       </c>
       <c r="R36">
-        <v>37.533761162568</v>
+        <v>1.186203209336</v>
       </c>
       <c r="S36">
-        <v>0.001263506963192783</v>
+        <v>3.334727501282235E-05</v>
       </c>
       <c r="T36">
-        <v>0.001263506963192783</v>
+        <v>3.334727501282236E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H37">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.1737952050226667</v>
+        <v>0.003124737476444444</v>
       </c>
       <c r="R37">
-        <v>1.564156845204</v>
+        <v>0.028122637288</v>
       </c>
       <c r="S37">
-        <v>5.265454364887563E-05</v>
+        <v>7.906008956540824E-07</v>
       </c>
       <c r="T37">
-        <v>5.265454364887564E-05</v>
+        <v>7.906008956540825E-07</v>
       </c>
     </row>
   </sheetData>
